--- a/稽核/六盘水/每日现抽.xlsx
+++ b/稽核/六盘水/每日现抽.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>V19</t>
+          <t>K22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>杨佳丽</t>
+          <t>何南春</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>空降房1</t>
+          <t>V07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>杨贤</t>
+          <t>杨佳丽</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>K22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>杨贤</t>
+          <t>杨佳丽</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>K22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -707,7 +707,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>空降2</t>
+          <t>空降房1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -751,154 +751,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>资-B组</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>胡娇</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>K19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>点舞</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>资-B组</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>胡娇</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>V11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>点舞</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>200</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>资-B组</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>胡娇</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>点舞</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J11" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,12 +841,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-02-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -991,12 +859,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>销-销售2部</t>
+          <t>销-销售5部</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>二部安祖培</t>
+          <t>五部陈永勇</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1012,243 +880,23 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>气氛扇子</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>68</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>销-销售7部</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>七部王涛</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>空降房1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>气氛扇子</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>68</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>销-销售1部</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>一部李龙</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>V20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>查理十世700单支套餐</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>780</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>出品部</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>丁丹</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>会员本金</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>V25</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>查理十世700单支套餐</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>780</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>出品部</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>彭刚</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>会员本金</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-02-07</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>V16+</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>慕威单支套</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>880</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>会员中心</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>蒋盼盼</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>微信</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
